--- a/POL.xlsx
+++ b/POL.xlsx
@@ -485,382 +485,382 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Cracovia,L L L W W D D W D W</t>
-  </si>
-  <si>
-    <t>Gornik Z.,L L W W L D W L W L</t>
-  </si>
-  <si>
-    <t>Jagiellonia,W W L L D D L W W D</t>
-  </si>
-  <si>
-    <t>Lech Poznan,W W W W D D W L W W</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk,W D W L D D W W W W</t>
-  </si>
-  <si>
-    <t>Leczna,L L D L L W L L L D</t>
-  </si>
-  <si>
-    <t>Legia,W L W L L W L L L</t>
-  </si>
-  <si>
-    <t>Piast Gliwice,W L W D W L L L W D</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin,D W L W D D D W W L</t>
-  </si>
-  <si>
-    <t>Radomiak Radom,W L W D D D L D D D</t>
-  </si>
-  <si>
-    <t>Rakow,W L W D D W W D W W</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw,W D D D W W D W L L</t>
-  </si>
-  <si>
-    <t>Stal Mielec,L L W L W D L W D W</t>
-  </si>
-  <si>
-    <t>Termalica B-B.,D D L L L D L W D L</t>
-  </si>
-  <si>
-    <t>Warta Poznan,D W L L D D L L L L</t>
-  </si>
-  <si>
-    <t>Wisla,D L L W W D L L L W</t>
-  </si>
-  <si>
-    <t>Wisla Plock,L W L W D L W L L W</t>
-  </si>
-  <si>
-    <t>Zaglebie,L W W L L W W W L L</t>
-  </si>
-  <si>
-    <t>Cracovia,1 0 0 2 2 2 1 4 3 2,(17)</t>
-  </si>
-  <si>
-    <t>Gornik Z.,0 1 1 3 0 2 1 1 4 0,(13)</t>
-  </si>
-  <si>
-    <t>Jagiellonia,3 1 1 1 1 1 0 1 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Lech Poznan,3 2 3 2 1 2 5 0 4 1,(23)</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk,1 1 3 0 2 2 1 4 3 2,(19)</t>
-  </si>
-  <si>
-    <t>Leczna,1 0 0 1 0 3 1 0 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Legia,1 1 2 0 0 3 2 1 0,(10)</t>
-  </si>
-  <si>
-    <t>Piast Gliwice,2 0 4 1 1 0 0 2 1 1,(12)</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin,1 1 0 4 1 1 1 1 4 0,(14)</t>
-  </si>
-  <si>
-    <t>Radomiak Radom,3 0 1 2 1 1 0 2 1 1,(12)</t>
-  </si>
-  <si>
-    <t>Rakow,3 0 2 1 2 3 3 2 3 2,(21)</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw,2 1 0 1 3 1 1 3 0 1,(13)</t>
-  </si>
-  <si>
-    <t>Stal Mielec,0 0 2 1 2 1 0 1 3 4,(14)</t>
-  </si>
-  <si>
-    <t>Termalica B-B.,1 2 0 1 1 0 1 3 1 0,(10)</t>
-  </si>
-  <si>
-    <t>Warta Poznan,1 4 0 0 1 0 0 0 0 0,(6)</t>
-  </si>
-  <si>
-    <t>Wisla,2 1 1 3 1 2 0 0 0 1,(11)</t>
-  </si>
-  <si>
-    <t>Wisla Plock,0 1 3 4 1 2 3 1 2 1,(18)</t>
-  </si>
-  <si>
-    <t>Zaglebie,0 3 2 0 1 1 2 2 0 2,(13)</t>
-  </si>
-  <si>
-    <t>Cracovia,2 2 3 1 1 2 1 2 3 0,(17)</t>
-  </si>
-  <si>
-    <t>Gornik Z.,2 3 0 1 1 2 0 3 2 1,(15)</t>
-  </si>
-  <si>
-    <t>Jagiellonia,0 0 3 2 1 1 3 0 0 1,(11)</t>
-  </si>
-  <si>
-    <t>Lech Poznan,1 0 1 0 1 2 0 1 0 0,(6)</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk,0 1 0 2 2 2 0 0 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Leczna,3 4 0 3 2 2 3 4 4 1,(26)</t>
-  </si>
-  <si>
-    <t>Legia,0 3 0 1 1 1 3 3 1,(13)</t>
-  </si>
-  <si>
-    <t>Piast Gliwice,0 1 3 1 0 1 1 4 0 1,(12)</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin,1 0 2 1 1 1 1 0 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Radomiak Radom,1 1 0 2 1 1 1 2 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Rakow,2 3 1 1 2 0 2 2 0 1,(14)</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw,1 1 0 1 1 0 1 1 4 2,(12)</t>
-  </si>
-  <si>
-    <t>Stal Mielec,2 1 1 4 0 1 3 0 3 2,(17)</t>
-  </si>
-  <si>
-    <t>Termalica B-B.,1 2 1 3 2 0 2 1 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Warta Poznan,1 0 2 1 1 0 1 2 3 2,(13)</t>
-  </si>
-  <si>
-    <t>Wisla,2 2 2 1 0 2 5 1 1 0,(16)</t>
-  </si>
-  <si>
-    <t>Wisla Plock,1 0 4 0 1 3 0 3 4 0,(16)</t>
-  </si>
-  <si>
-    <t>Zaglebie,3 1 0 4 3 0 1 0 1 4,(17)</t>
-  </si>
-  <si>
-    <t>Cracovia,3 2 3 3 3 4 2 6 6 2,(34)</t>
-  </si>
-  <si>
-    <t>Gornik Z.,2 4 1 4 1 4 1 4 6 1,(28)</t>
-  </si>
-  <si>
-    <t>Jagiellonia,3 1 4 3 2 2 3 1 1 2,(22)</t>
-  </si>
-  <si>
-    <t>Lech Poznan,4 2 4 2 2 4 5 1 4 1,(29)</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk,1 2 3 2 4 4 1 4 4 2,(27)</t>
-  </si>
-  <si>
-    <t>Leczna,4 4 0 4 2 5 4 4 5 2,(34)</t>
-  </si>
-  <si>
-    <t>Legia,1 4 2 1 1 4 5 4 1,(23)</t>
-  </si>
-  <si>
-    <t>Piast Gliwice,2 1 7 2 1 1 1 6 1 2,(24)</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin,2 1 2 5 2 2 2 1 5 1,(23)</t>
-  </si>
-  <si>
-    <t>Radomiak Radom,4 1 1 4 2 2 1 4 2 2,(23)</t>
-  </si>
-  <si>
-    <t>Rakow,5 3 3 2 4 3 5 4 3 3,(35)</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw,3 2 0 2 4 1 2 4 4 3,(25)</t>
-  </si>
-  <si>
-    <t>Stal Mielec,2 1 3 5 2 2 3 1 6 6,(31)</t>
-  </si>
-  <si>
-    <t>Termalica B-B.,2 4 1 4 3 0 3 4 2 2,(25)</t>
-  </si>
-  <si>
-    <t>Warta Poznan,2 4 2 1 2 0 1 2 3 2,(19)</t>
-  </si>
-  <si>
-    <t>Wisla,4 3 3 4 1 4 5 1 1 1,(27)</t>
-  </si>
-  <si>
-    <t>Wisla Plock,1 1 7 4 2 5 3 4 6 1,(34)</t>
-  </si>
-  <si>
-    <t>Zaglebie,3 4 2 4 4 1 3 2 1 6,(30)</t>
-  </si>
-  <si>
-    <t>Cracovia,1-2 2-0 3-0 2-1 1-2 2-2 1-1 2-4 3-3 2-0</t>
-  </si>
-  <si>
-    <t>Gornik Z.,2-0 1-3 1-0 1-3 0-1 2-2 1-0 3-1 4-2 0-1</t>
-  </si>
-  <si>
-    <t>Jagiellonia,3-0 1-0 1-3 2-1 1-1 1-1 3-0 1-0 0-1 1-1</t>
-  </si>
-  <si>
-    <t>Lech Poznan,1-3 2-0 1-3 2-0 1-1 2-2 5-0 1-0 4-0 0-1</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk,1-0 1-1 3-0 2-0 2-2 2-2 1-0 0-4 3-1 0-2</t>
-  </si>
-  <si>
-    <t>Leczna,3-1 0-4 0-0 1-3 2-0 3-2 3-1 0-4 4-1 1-1</t>
-  </si>
-  <si>
-    <t>Legia,1-0 3-1 0-2 1-0 1-0 3-1 2-3 3-1 0-1</t>
-  </si>
-  <si>
-    <t>Piast Gliwice,0-2 1-0 4-3 1-1 0-1 0-1 1-0 2-4 1-0 1-1</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin,1-1 1-0 2-0 4-1 1-1 1-1 1-1 0-1 4-1 1-0</t>
-  </si>
-  <si>
-    <t>Radomiak Radom,3-1 1-0 1-0 2-2 1-1 1-1 1-0 2-2 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Rakow,2-3 3-0 1-2 1-1 2-2 0-3 2-3 2-2 3-0 1-2</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw,1-2 1-1 0-0 1-1 1-3 1-0 1-1 3-1 4-0 1-2</t>
-  </si>
-  <si>
-    <t>Stal Mielec,0-2 1-0 2-1 4-1 2-0 1-1 0-3 1-0 3-3 4-2</t>
-  </si>
-  <si>
-    <t>Termalica B-B.,1-1 2-2 1-0 1-3 1-2 0-0 2-1 3-1 1-1 0-2</t>
-  </si>
-  <si>
-    <t>Warta Poznan,1-1 0-4 0-2 1-0 1-1 0-0 1-0 0-2 3-0 2-0</t>
-  </si>
-  <si>
-    <t>Wisla,2-2 1-2 2-1 1-3 1-0 2-2 5-0 0-1 1-0 0-1</t>
-  </si>
-  <si>
-    <t>Wisla Plock,1-0 1-0 4-3 4-0 1-1 3-2 3-0 3-1 4-2 1-0</t>
-  </si>
-  <si>
-    <t>Zaglebie,3-0 3-1 2-0 4-0 1-3 0-1 2-1 0-2 0-1 4-2</t>
-  </si>
-  <si>
-    <t>Cracovia,-1 -2 -3 1 1 0 0 2 0 2,(0)</t>
-  </si>
-  <si>
-    <t>Gornik Z.,-2 -2 1 2 -1 0 1 -2 2 -1,(-2)</t>
-  </si>
-  <si>
-    <t>Jagiellonia,3 1 -2 -1 0 0 -3 1 1 0,(0)</t>
-  </si>
-  <si>
-    <t>Lech Poznan,2 2 2 2 0 0 5 -1 4 1,(17)</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk,1 0 3 -2 0 0 1 4 2 2,(11)</t>
-  </si>
-  <si>
-    <t>Leczna,-2 -4 0 -2 -2 1 -2 -4 -3 0,(-18)</t>
-  </si>
-  <si>
-    <t>Legia,1 -2 2 -1 -1 2 -1 -2 -1,(-3)</t>
-  </si>
-  <si>
-    <t>Piast Gliwice,2 -1 1 0 1 -1 -1 -2 1 0,(0)</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin,0 1 -2 3 0 0 0 1 3 -1,(5)</t>
-  </si>
-  <si>
-    <t>Radomiak Radom,2 -1 1 0 0 0 -1 0 0 0,(1)</t>
-  </si>
-  <si>
-    <t>Rakow,1 -3 1 0 0 3 1 0 3 1,(7)</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw,1 0 0 0 2 1 0 2 -4 -1,(1)</t>
-  </si>
-  <si>
-    <t>Stal Mielec,-2 -1 1 -3 2 0 -3 1 0 2,(-3)</t>
-  </si>
-  <si>
-    <t>Termalica B-B.,0 0 -1 -2 -1 0 -1 2 0 -2,(-5)</t>
-  </si>
-  <si>
-    <t>Warta Poznan,0 4 -2 -1 0 0 -1 -2 -3 -2,(-7)</t>
-  </si>
-  <si>
-    <t>Wisla,0 -1 -1 2 1 0 -5 -1 -1 1,(-5)</t>
-  </si>
-  <si>
-    <t>Wisla Plock,-1 1 -1 4 0 -1 3 -2 -2 1,(2)</t>
-  </si>
-  <si>
-    <t>Zaglebie,-3 2 2 -4 -2 1 1 2 -1 -2,(-4)</t>
-  </si>
-  <si>
-    <t>Cracovia,Slask Wroclaw(5) Lech Poznan(1) Lechia Gdansk(2) Jagiellonia(7) Termalica B-B.(16) Gornik Z.(12) Pogon Szczecin(4) Piast Gliwice(10) Stal Mielec(8) Warta Poznan(17)</t>
-  </si>
-  <si>
-    <t>Gornik Z.,Pogon Szczecin(4) Lech Poznan(1) Stal Mielec(8) Jagiellonia(7) Piast Gliwice(10) Cracovia(6) Warta Poznan(17) Termalica B-B.(16) Wisla Plock(14) Wisla(11)</t>
-  </si>
-  <si>
-    <t>Jagiellonia,Rakow(3) Termalica B-B.(16) Gornik Z.(12) Cracovia(6) Warta Poznan(17) Stal Mielec(8) Wisla Plock(14) Lech Poznan(1) Zaglebie(9) Radomiak Radom(13)</t>
-  </si>
-  <si>
-    <t>Lech Poznan,Gornik Z.(12) Cracovia(6) Termalica B-B.(16) Lechia Gdansk(2) Pogon Szczecin(4) Rakow(3) Wisla(11) Jagiellonia(7) Slask Wroclaw(5) Legia(15)</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk,Wisla Plock(14) Slask Wroclaw(5) Cracovia(6) Lech Poznan(1) Radomiak Radom(13) Wisla(11) Piast Gliwice(10) Leczna(18) Legia(15) Termalica B-B.(16)</t>
-  </si>
-  <si>
-    <t>Leczna,Zaglebie(9) Warta Poznan(17) Slask Wroclaw(5) Wisla(11) Stal Mielec(8) Wisla Plock(14) Legia(15) Lechia Gdansk(2) Pogon Szczecin(4) Piast Gliwice(10)</t>
-  </si>
-  <si>
-    <t>Legia,Wisla Plock(14) Radomiak Radom(13) Warta Poznan(17) Wisla(11) Slask Wroclaw(5) Leczna(18) Rakow(3) Lechia Gdansk(2) Lech Poznan(1)</t>
-  </si>
-  <si>
-    <t>Piast Gliwice,Stal Mielec(8) Pogon Szczecin(4) Wisla Plock(14) Slask Wroclaw(5) Gornik Z.(12) Zaglebie(9) Lechia Gdansk(2) Cracovia(6) Wisla(11) Leczna(18)</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin,Warta Poznan(17) Piast Gliwice(10) Zaglebie(9) Stal Mielec(8) Lech Poznan(1) Radomiak Radom(13) Cracovia(6) Wisla(11) Leczna(18) Wisla Plock(14)</t>
-  </si>
-  <si>
-    <t>Radomiak Radom,Legia(15) Wisla Plock(14) Warta Poznan(17) Lechia Gdansk(2) Pogon Szczecin(4) Slask Wroclaw(5) Stal Mielec(8) Rakow(3) Termalica B-B.(16) Jagiellonia(7)</t>
-  </si>
-  <si>
-    <t>Rakow,Piast Gliwice(10) Jagiellonia(7) Wisla(11) Wisla Plock(14) Lech Poznan(1) Stal Mielec(8) Legia(15) Radomiak Radom(13) Warta Poznan(17) Slask Wroclaw(5)</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw,Cracovia(6) Lechia Gdansk(2) Leczna(18) Piast Gliwice(10) Zaglebie(9) Legia(15) Radomiak Radom(13) Wisla Plock(14) Lech Poznan(1) Rakow(3)</t>
-  </si>
-  <si>
-    <t>Stal Mielec,Piast Gliwice(10) Gornik Z.(12) Wisla(11) Pogon Szczecin(4) Leczna(18) Jagiellonia(7) Rakow(3) Radomiak Radom(13) Cracovia(6) Zaglebie(9)</t>
-  </si>
-  <si>
-    <t>Termalica B-B.,Stal Mielec(8) Wisla(11) Jagiellonia(7) Lech Poznan(1) Cracovia(6) Warta Poznan(17) Zaglebie(9) Gornik Z.(12) Radomiak Radom(13) Lechia Gdansk(2)</t>
-  </si>
-  <si>
-    <t>Warta Poznan,Pogon Szczecin(4) Leczna(18) Legia(15) Radomiak Radom(13) Jagiellonia(7) Termalica B-B.(16) Gornik Z.(12) Zaglebie(9) Rakow(3) Cracovia(6)</t>
-  </si>
-  <si>
-    <t>Wisla,Termalica B-B.(16) Rakow(3) Stal Mielec(8) Leczna(18) Legia(15) Lechia Gdansk(2) Lech Poznan(1) Pogon Szczecin(4) Piast Gliwice(10) Gornik Z.(12)</t>
-  </si>
-  <si>
-    <t>Wisla Plock,Lechia Gdansk(2) Radomiak Radom(13) Piast Gliwice(10) Zaglebie(9) Rakow(3) Leczna(18) Jagiellonia(7) Slask Wroclaw(5) Gornik Z.(12) Pogon Szczecin(4)</t>
-  </si>
-  <si>
-    <t>Zaglebie,Wisla(11) Leczna(18) Pogon Szczecin(4) Wisla Plock(14) Slask Wroclaw(5) Piast Gliwice(10) Termalica B-B.(16) Warta Poznan(17) Jagiellonia(7) Stal Mielec(8)</t>
+    <t>Cracovia,W D D W D W</t>
+  </si>
+  <si>
+    <t>Gornik Z.,L D W L W L</t>
+  </si>
+  <si>
+    <t>Jagiellonia,D D L W W D</t>
+  </si>
+  <si>
+    <t>Lech Poznan,D D W L W W</t>
+  </si>
+  <si>
+    <t>Lechia Gdansk,D D W W W W</t>
+  </si>
+  <si>
+    <t>Leczna,L W L L L D</t>
+  </si>
+  <si>
+    <t>Legia,L L W L L L</t>
+  </si>
+  <si>
+    <t>Piast Gliwice,W L L L W D</t>
+  </si>
+  <si>
+    <t>Pogon Szczecin,D D D W W L</t>
+  </si>
+  <si>
+    <t>Radomiak Radom,D D L D D D</t>
+  </si>
+  <si>
+    <t>Rakow,D W W D W W</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw,W W D W L L</t>
+  </si>
+  <si>
+    <t>Stal Mielec,W D L W D W</t>
+  </si>
+  <si>
+    <t>Termalica B-B.,L D L W D L</t>
+  </si>
+  <si>
+    <t>Warta Poznan,D D L L L L</t>
+  </si>
+  <si>
+    <t>Wisla,W D L L L W</t>
+  </si>
+  <si>
+    <t>Wisla Plock,D L W L L W</t>
+  </si>
+  <si>
+    <t>Zaglebie,L W W W L L</t>
+  </si>
+  <si>
+    <t>Cracovia,2 2 1 4 3 2,(14)</t>
+  </si>
+  <si>
+    <t>Gornik Z.,0 2 1 1 4 0,(8)</t>
+  </si>
+  <si>
+    <t>Jagiellonia,1 1 0 1 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Lech Poznan,1 2 5 0 4 1,(13)</t>
+  </si>
+  <si>
+    <t>Lechia Gdansk,2 2 1 4 3 2,(14)</t>
+  </si>
+  <si>
+    <t>Leczna,0 3 1 0 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Legia,0 0 3 2 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Piast Gliwice,1 0 0 2 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Pogon Szczecin,1 1 1 1 4 0,(8)</t>
+  </si>
+  <si>
+    <t>Radomiak Radom,1 1 0 2 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Rakow,2 3 3 2 3 2,(15)</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw,3 1 1 3 0 1,(9)</t>
+  </si>
+  <si>
+    <t>Stal Mielec,2 1 0 1 3 4,(11)</t>
+  </si>
+  <si>
+    <t>Termalica B-B.,1 0 1 3 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Warta Poznan,1 0 0 0 0 0,(1)</t>
+  </si>
+  <si>
+    <t>Wisla,1 2 0 0 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Wisla Plock,1 2 3 1 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Zaglebie,1 1 2 2 0 2,(8)</t>
+  </si>
+  <si>
+    <t>Cracovia,1 2 1 2 3 0,(9)</t>
+  </si>
+  <si>
+    <t>Gornik Z.,1 2 0 3 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Jagiellonia,1 1 3 0 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Lech Poznan,1 2 0 1 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Lechia Gdansk,2 2 0 0 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Leczna,2 2 3 4 4 1,(16)</t>
+  </si>
+  <si>
+    <t>Legia,1 1 1 3 3 1,(10)</t>
+  </si>
+  <si>
+    <t>Piast Gliwice,0 1 1 4 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Pogon Szczecin,1 1 1 0 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Radomiak Radom,1 1 1 2 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Rakow,2 0 2 2 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw,1 0 1 1 4 2,(9)</t>
+  </si>
+  <si>
+    <t>Stal Mielec,0 1 3 0 3 2,(9)</t>
+  </si>
+  <si>
+    <t>Termalica B-B.,2 0 2 1 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Warta Poznan,1 0 1 2 3 2,(9)</t>
+  </si>
+  <si>
+    <t>Wisla,0 2 5 1 1 0,(9)</t>
+  </si>
+  <si>
+    <t>Wisla Plock,1 3 0 3 4 0,(11)</t>
+  </si>
+  <si>
+    <t>Zaglebie,3 0 1 0 1 4,(9)</t>
+  </si>
+  <si>
+    <t>Cracovia,3 4 2 6 6 2,(23)</t>
+  </si>
+  <si>
+    <t>Gornik Z.,1 4 1 4 6 1,(17)</t>
+  </si>
+  <si>
+    <t>Jagiellonia,2 2 3 1 1 2,(11)</t>
+  </si>
+  <si>
+    <t>Lech Poznan,2 4 5 1 4 1,(17)</t>
+  </si>
+  <si>
+    <t>Lechia Gdansk,4 4 1 4 4 2,(19)</t>
+  </si>
+  <si>
+    <t>Leczna,2 5 4 4 5 2,(22)</t>
+  </si>
+  <si>
+    <t>Legia,1 1 4 5 4 1,(16)</t>
+  </si>
+  <si>
+    <t>Piast Gliwice,1 1 1 6 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Pogon Szczecin,2 2 2 1 5 1,(13)</t>
+  </si>
+  <si>
+    <t>Radomiak Radom,2 2 1 4 2 2,(13)</t>
+  </si>
+  <si>
+    <t>Rakow,4 3 5 4 3 3,(22)</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw,4 1 2 4 4 3,(18)</t>
+  </si>
+  <si>
+    <t>Stal Mielec,2 2 3 1 6 6,(20)</t>
+  </si>
+  <si>
+    <t>Termalica B-B.,3 0 3 4 2 2,(14)</t>
+  </si>
+  <si>
+    <t>Warta Poznan,2 0 1 2 3 2,(10)</t>
+  </si>
+  <si>
+    <t>Wisla,1 4 5 1 1 1,(13)</t>
+  </si>
+  <si>
+    <t>Wisla Plock,2 5 3 4 6 1,(21)</t>
+  </si>
+  <si>
+    <t>Zaglebie,4 1 3 2 1 6,(17)</t>
+  </si>
+  <si>
+    <t>Cracovia,1-2 2-2 1-1 2-4 3-3 2-0</t>
+  </si>
+  <si>
+    <t>Gornik Z.,0-1 2-2 1-0 3-1 4-2 0-1</t>
+  </si>
+  <si>
+    <t>Jagiellonia,1-1 1-1 3-0 1-0 0-1 1-1</t>
+  </si>
+  <si>
+    <t>Lech Poznan,1-1 2-2 5-0 1-0 4-0 0-1</t>
+  </si>
+  <si>
+    <t>Lechia Gdansk,2-2 2-2 1-0 0-4 3-1 0-2</t>
+  </si>
+  <si>
+    <t>Leczna,2-0 3-2 3-1 0-4 4-1 1-1</t>
+  </si>
+  <si>
+    <t>Legia,1-0 1-0 3-1 2-3 3-1 0-1</t>
+  </si>
+  <si>
+    <t>Piast Gliwice,0-1 0-1 1-0 2-4 1-0 1-1</t>
+  </si>
+  <si>
+    <t>Pogon Szczecin,1-1 1-1 1-1 0-1 4-1 1-0</t>
+  </si>
+  <si>
+    <t>Radomiak Radom,1-1 1-1 1-0 2-2 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Rakow,2-2 0-3 2-3 2-2 3-0 1-2</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw,1-3 1-0 1-1 3-1 4-0 1-2</t>
+  </si>
+  <si>
+    <t>Stal Mielec,2-0 1-1 0-3 1-0 3-3 4-2</t>
+  </si>
+  <si>
+    <t>Termalica B-B.,1-2 0-0 2-1 3-1 1-1 0-2</t>
+  </si>
+  <si>
+    <t>Warta Poznan,1-1 0-0 1-0 0-2 3-0 2-0</t>
+  </si>
+  <si>
+    <t>Wisla,1-0 2-2 5-0 0-1 1-0 0-1</t>
+  </si>
+  <si>
+    <t>Wisla Plock,1-1 3-2 3-0 3-1 4-2 1-0</t>
+  </si>
+  <si>
+    <t>Zaglebie,1-3 0-1 2-1 0-2 0-1 4-2</t>
+  </si>
+  <si>
+    <t>Cracovia,1 0 0 2 0 2,(5)</t>
+  </si>
+  <si>
+    <t>Gornik Z.,-1 0 1 -2 2 -1,(-1)</t>
+  </si>
+  <si>
+    <t>Jagiellonia,0 0 -3 1 1 0,(-1)</t>
+  </si>
+  <si>
+    <t>Lech Poznan,0 0 5 -1 4 1,(9)</t>
+  </si>
+  <si>
+    <t>Lechia Gdansk,0 0 1 4 2 2,(9)</t>
+  </si>
+  <si>
+    <t>Leczna,-2 1 -2 -4 -3 0,(-10)</t>
+  </si>
+  <si>
+    <t>Legia,-1 -1 2 -1 -2 -1,(-4)</t>
+  </si>
+  <si>
+    <t>Piast Gliwice,1 -1 -1 -2 1 0,(-2)</t>
+  </si>
+  <si>
+    <t>Pogon Szczecin,0 0 0 1 3 -1,(3)</t>
+  </si>
+  <si>
+    <t>Radomiak Radom,0 0 -1 0 0 0,(-1)</t>
+  </si>
+  <si>
+    <t>Rakow,0 3 1 0 3 1,(8)</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw,2 1 0 2 -4 -1,(0)</t>
+  </si>
+  <si>
+    <t>Stal Mielec,2 0 -3 1 0 2,(2)</t>
+  </si>
+  <si>
+    <t>Termalica B-B.,-1 0 -1 2 0 -2,(-2)</t>
+  </si>
+  <si>
+    <t>Warta Poznan,0 0 -1 -2 -3 -2,(-8)</t>
+  </si>
+  <si>
+    <t>Wisla,1 0 -5 -1 -1 1,(-5)</t>
+  </si>
+  <si>
+    <t>Wisla Plock,0 -1 3 -2 -2 1,(-1)</t>
+  </si>
+  <si>
+    <t>Zaglebie,-2 1 1 2 -1 -2,(-1)</t>
+  </si>
+  <si>
+    <t>Cracovia,Termalica B-B.(16) Gornik Z.(12) Pogon Szczecin(4) Piast Gliwice(10) Stal Mielec(8) Warta Poznan(17)</t>
+  </si>
+  <si>
+    <t>Gornik Z.,Piast Gliwice(10) Cracovia(6) Warta Poznan(17) Termalica B-B.(16) Wisla Plock(14) Wisla(11)</t>
+  </si>
+  <si>
+    <t>Jagiellonia,Warta Poznan(17) Stal Mielec(8) Wisla Plock(14) Lech Poznan(1) Zaglebie(9) Radomiak Radom(13)</t>
+  </si>
+  <si>
+    <t>Lech Poznan,Pogon Szczecin(4) Rakow(3) Wisla(11) Jagiellonia(7) Slask Wroclaw(5) Legia(15)</t>
+  </si>
+  <si>
+    <t>Lechia Gdansk,Radomiak Radom(13) Wisla(11) Piast Gliwice(10) Leczna(18) Legia(15) Termalica B-B.(16)</t>
+  </si>
+  <si>
+    <t>Leczna,Stal Mielec(8) Wisla Plock(14) Legia(15) Lechia Gdansk(2) Pogon Szczecin(4) Piast Gliwice(10)</t>
+  </si>
+  <si>
+    <t>Legia,Wisla(11) Slask Wroclaw(5) Leczna(18) Rakow(3) Lechia Gdansk(2) Lech Poznan(1)</t>
+  </si>
+  <si>
+    <t>Piast Gliwice,Gornik Z.(12) Zaglebie(9) Lechia Gdansk(2) Cracovia(6) Wisla(11) Leczna(18)</t>
+  </si>
+  <si>
+    <t>Pogon Szczecin,Lech Poznan(1) Radomiak Radom(13) Cracovia(6) Wisla(11) Leczna(18) Wisla Plock(14)</t>
+  </si>
+  <si>
+    <t>Radomiak Radom,Pogon Szczecin(4) Slask Wroclaw(5) Stal Mielec(8) Rakow(3) Termalica B-B.(16) Jagiellonia(7)</t>
+  </si>
+  <si>
+    <t>Rakow,Lech Poznan(1) Stal Mielec(8) Legia(15) Radomiak Radom(13) Warta Poznan(17) Slask Wroclaw(5)</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw,Zaglebie(9) Legia(15) Radomiak Radom(13) Wisla Plock(14) Lech Poznan(1) Rakow(3)</t>
+  </si>
+  <si>
+    <t>Stal Mielec,Leczna(18) Jagiellonia(7) Rakow(3) Radomiak Radom(13) Cracovia(6) Zaglebie(9)</t>
+  </si>
+  <si>
+    <t>Termalica B-B.,Cracovia(6) Warta Poznan(17) Zaglebie(9) Gornik Z.(12) Radomiak Radom(13) Lechia Gdansk(2)</t>
+  </si>
+  <si>
+    <t>Warta Poznan,Jagiellonia(7) Termalica B-B.(16) Gornik Z.(12) Zaglebie(9) Rakow(3) Cracovia(6)</t>
+  </si>
+  <si>
+    <t>Wisla,Legia(15) Lechia Gdansk(2) Lech Poznan(1) Pogon Szczecin(4) Piast Gliwice(10) Gornik Z.(12)</t>
+  </si>
+  <si>
+    <t>Wisla Plock,Rakow(3) Leczna(18) Jagiellonia(7) Slask Wroclaw(5) Gornik Z.(12) Pogon Szczecin(4)</t>
+  </si>
+  <si>
+    <t>Zaglebie,Slask Wroclaw(5) Piast Gliwice(10) Termalica B-B.(16) Warta Poznan(17) Jagiellonia(7) Stal Mielec(8)</t>
   </si>
   <si>
     <t>pol_division</t>

--- a/POL.xlsx
+++ b/POL.xlsx
@@ -548,382 +548,382 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Cracovia,D L L L W W D D W D W D L L</t>
-  </si>
-  <si>
-    <t>Gornik Z.,L L W W L D W L W L D D L</t>
-  </si>
-  <si>
-    <t>Jagiellonia,D W W L L D D L W W D L D D</t>
-  </si>
-  <si>
-    <t>Lech Poznan,D W W W W D D W L W W W D D</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk,D W D W L D D W W W W D W W</t>
-  </si>
-  <si>
-    <t>Leczna,D L L D L L W L L L D L D D</t>
-  </si>
-  <si>
-    <t>Legia,W L W L L W L L L L L L</t>
-  </si>
-  <si>
-    <t>Piast Gliwice,L W L W D W L L L W D W D L</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin,W D W L W D D D W W L W W D</t>
-  </si>
-  <si>
-    <t>Radomiak Radom,D W L W D D D L D D D W W W</t>
-  </si>
-  <si>
-    <t>Rakow,W L W D D W W D W W W D D</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw,D W D D D W W D W L L W L D</t>
-  </si>
-  <si>
-    <t>Stal Mielec,D L L W L W D L W D W D D W</t>
-  </si>
-  <si>
-    <t>Termalica B-B.,D D L L L D L W D L L W D</t>
-  </si>
-  <si>
-    <t>Warta Poznan,D D W L L D D L L L L D L W</t>
-  </si>
-  <si>
-    <t>Wisla,W D L L W W D L L L W L L W</t>
-  </si>
-  <si>
-    <t>Wisla Plock,L L W L W D L W L L W L W D</t>
-  </si>
-  <si>
-    <t>Zaglebie,L W W L L W W W L L D D L</t>
-  </si>
-  <si>
-    <t>Cracovia,1 1 0 0 2 2 2 1 4 3 2 1 1 0,(20)</t>
-  </si>
-  <si>
-    <t>Gornik Z.,0 1 1 3 0 2 1 1 4 0 1 0 0,(14)</t>
-  </si>
-  <si>
-    <t>Jagiellonia,1 3 1 1 1 1 1 0 1 1 1 1 3 2,(18)</t>
-  </si>
-  <si>
-    <t>Lech Poznan,0 3 2 3 2 1 2 5 0 4 1 4 0 1,(28)</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk,1 1 1 3 0 2 2 1 4 3 2 1 2 2,(25)</t>
-  </si>
-  <si>
-    <t>Leczna,1 1 0 0 1 0 3 1 0 1 1 1 0 1,(11)</t>
-  </si>
-  <si>
-    <t>Legia,1 1 2 0 0 3 2 1 0 1 0 1,(12)</t>
-  </si>
-  <si>
-    <t>Piast Gliwice,2 2 0 4 1 1 0 0 2 1 1 4 3 0,(21)</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin,2 1 1 0 4 1 1 1 1 4 0 4 2 0,(22)</t>
-  </si>
-  <si>
-    <t>Radomiak Radom,0 3 0 1 2 1 1 0 2 1 1 3 2 1,(18)</t>
-  </si>
-  <si>
-    <t>Rakow,3 0 2 1 2 3 3 2 3 2 3 0 0,(24)</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw,2 2 1 0 1 3 1 1 3 0 1 5 3 2,(25)</t>
-  </si>
-  <si>
-    <t>Stal Mielec,1 0 0 2 1 2 1 0 1 3 4 0 0 3,(18)</t>
-  </si>
-  <si>
-    <t>Termalica B-B.,1 2 0 1 1 0 1 3 1 0 2 4 1,(17)</t>
-  </si>
-  <si>
-    <t>Warta Poznan,2 1 4 0 0 1 0 0 0 0 0 0 0 1,(9)</t>
-  </si>
-  <si>
-    <t>Wisla,3 2 1 1 3 1 2 0 0 0 1 0 0 1,(15)</t>
-  </si>
-  <si>
-    <t>Wisla Plock,0 0 1 3 4 1 2 3 1 2 1 1 2 1,(22)</t>
-  </si>
-  <si>
-    <t>Zaglebie,0 3 2 0 1 1 2 2 0 2 1 0 1,(15)</t>
-  </si>
-  <si>
-    <t>Cracovia,1 2 2 3 1 1 2 1 2 3 0 1 2 1,(22)</t>
-  </si>
-  <si>
-    <t>Gornik Z.,2 3 0 1 1 2 0 3 2 1 1 0 1,(17)</t>
-  </si>
-  <si>
-    <t>Jagiellonia,1 0 0 3 2 1 1 3 0 0 1 4 3 2,(21)</t>
-  </si>
-  <si>
-    <t>Lech Poznan,0 1 0 1 0 1 2 0 1 0 0 1 0 1,(8)</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk,1 0 1 0 2 2 2 0 0 1 0 1 0 1,(11)</t>
-  </si>
-  <si>
-    <t>Leczna,1 3 4 0 3 2 2 3 4 4 1 3 0 1,(31)</t>
-  </si>
-  <si>
-    <t>Legia,0 3 0 1 1 1 3 3 1 4 2 3,(22)</t>
-  </si>
-  <si>
-    <t>Piast Gliwice,3 0 1 3 1 0 1 1 4 0 1 1 3 1,(20)</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin,0 1 0 2 1 1 1 1 0 1 1 1 0 0,(10)</t>
-  </si>
-  <si>
-    <t>Radomiak Radom,0 1 1 0 2 1 1 1 2 1 1 1 1 0,(13)</t>
-  </si>
-  <si>
-    <t>Rakow,2 3 1 1 2 0 2 2 0 1 2 0 0,(16)</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw,2 1 1 0 1 1 0 1 1 4 2 0 4 2,(20)</t>
-  </si>
-  <si>
-    <t>Stal Mielec,1 2 1 1 4 0 1 3 0 3 2 0 0 1,(19)</t>
-  </si>
-  <si>
-    <t>Termalica B-B.,1 2 1 3 2 0 2 1 1 2 3 3 1,(22)</t>
-  </si>
-  <si>
-    <t>Warta Poznan,2 1 0 2 1 1 0 1 2 3 2 0 2 0,(17)</t>
-  </si>
-  <si>
-    <t>Wisla,0 2 2 2 1 0 2 5 1 1 0 5 2 0,(23)</t>
-  </si>
-  <si>
-    <t>Wisla Plock,1 1 0 4 0 1 3 0 3 4 0 4 0 1,(22)</t>
-  </si>
-  <si>
-    <t>Zaglebie,3 1 0 4 3 0 1 0 1 4 1 0 2,(20)</t>
-  </si>
-  <si>
-    <t>Cracovia,2 3 2 3 3 3 4 2 6 6 2 2 3 1,(42)</t>
-  </si>
-  <si>
-    <t>Gornik Z.,2 4 1 4 1 4 1 4 6 1 2 0 1,(31)</t>
-  </si>
-  <si>
-    <t>Jagiellonia,2 3 1 4 3 2 2 3 1 1 2 5 6 4,(39)</t>
-  </si>
-  <si>
-    <t>Lech Poznan,0 4 2 4 2 2 4 5 1 4 1 5 0 2,(36)</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk,2 1 2 3 2 4 4 1 4 4 2 2 2 3,(36)</t>
-  </si>
-  <si>
-    <t>Leczna,2 4 4 0 4 2 5 4 4 5 2 4 0 2,(42)</t>
-  </si>
-  <si>
-    <t>Legia,1 4 2 1 1 4 5 4 1 5 2 4,(34)</t>
-  </si>
-  <si>
-    <t>Piast Gliwice,5 2 1 7 2 1 1 1 6 1 2 5 6 1,(41)</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin,2 2 1 2 5 2 2 2 1 5 1 5 2 0,(32)</t>
-  </si>
-  <si>
-    <t>Radomiak Radom,0 4 1 1 4 2 2 1 4 2 2 4 3 1,(31)</t>
-  </si>
-  <si>
-    <t>Rakow,5 3 3 2 4 3 5 4 3 3 5 0 0,(40)</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw,4 3 2 0 2 4 1 2 4 4 3 5 7 4,(45)</t>
-  </si>
-  <si>
-    <t>Stal Mielec,2 2 1 3 5 2 2 3 1 6 6 0 0 4,(37)</t>
-  </si>
-  <si>
-    <t>Termalica B-B.,2 4 1 4 3 0 3 4 2 2 5 7 2,(39)</t>
-  </si>
-  <si>
-    <t>Warta Poznan,4 2 4 2 1 2 0 1 2 3 2 0 2 1,(26)</t>
-  </si>
-  <si>
-    <t>Wisla,3 4 3 3 4 1 4 5 1 1 1 5 2 1,(38)</t>
-  </si>
-  <si>
-    <t>Wisla Plock,1 1 1 7 4 2 5 3 4 6 1 5 2 2,(44)</t>
-  </si>
-  <si>
-    <t>Zaglebie,3 4 2 4 4 1 3 2 1 6 2 0 3,(35)</t>
-  </si>
-  <si>
-    <t>Cracovia,1-1 1-2 2-0 3-0 2-1 1-2 2-2 1-1 2-4 3-3 2-0 1-1 1-2 1-0</t>
-  </si>
-  <si>
-    <t>Gornik Z.,2-0 1-3 1-0 1-3 0-1 2-2 1-0 3-1 4-2 0-1 1-1 0-0 1-0</t>
-  </si>
-  <si>
-    <t>Jagiellonia,1-1 3-0 1-0 1-3 2-1 1-1 1-1 3-0 1-0 0-1 1-1 4-1 3-3 2-2</t>
-  </si>
-  <si>
-    <t>Lech Poznan,0-0 1-3 2-0 1-3 2-0 1-1 2-2 5-0 1-0 4-0 0-1 4-1 0-0 1-1</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk,1-1 1-0 1-1 3-0 2-0 2-2 2-2 1-0 0-4 3-1 0-2 1-1 0-2 2-1</t>
-  </si>
-  <si>
-    <t>Leczna,1-1 3-1 0-4 0-0 1-3 2-0 3-2 3-1 0-4 4-1 1-1 3-1 0-0 1-1</t>
-  </si>
-  <si>
-    <t>Legia,1-0 3-1 0-2 1-0 1-0 3-1 2-3 3-1 0-1 4-1 0-2 1-3</t>
-  </si>
-  <si>
-    <t>Piast Gliwice,2-3 0-2 1-0 4-3 1-1 0-1 0-1 1-0 2-4 1-0 1-1 4-1 3-3 0-1</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin,2-0 1-1 1-0 2-0 4-1 1-1 1-1 1-1 0-1 4-1 1-0 4-1 0-2 0-0</t>
-  </si>
-  <si>
-    <t>Radomiak Radom,0-0 3-1 1-0 1-0 2-2 1-1 1-1 1-0 2-2 1-1 1-1 3-1 1-2 1-0</t>
-  </si>
-  <si>
-    <t>Rakow,2-3 3-0 1-2 1-1 2-2 0-3 2-3 2-2 3-0 1-2 3-2 0-0 0-0</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw,2-2 1-2 1-1 0-0 1-1 1-3 1-0 1-1 3-1 4-0 1-2 0-5 4-3 2-2</t>
-  </si>
-  <si>
-    <t>Stal Mielec,1-1 0-2 1-0 2-1 4-1 2-0 1-1 0-3 1-0 3-3 4-2 0-0 0-0 1-3</t>
-  </si>
-  <si>
-    <t>Termalica B-B.,1-1 2-2 1-0 1-3 1-2 0-0 2-1 3-1 1-1 0-2 3-2 4-3 1-1</t>
-  </si>
-  <si>
-    <t>Warta Poznan,2-2 1-1 0-4 0-2 1-0 1-1 0-0 1-0 0-2 3-0 2-0 0-0 0-2 0-1</t>
-  </si>
-  <si>
-    <t>Wisla,3-0 2-2 1-2 2-1 1-3 1-0 2-2 5-0 0-1 1-0 0-1 0-5 2-0 1-0</t>
-  </si>
-  <si>
-    <t>Wisla Plock,1-0 1-0 1-0 4-3 4-0 1-1 3-2 3-0 3-1 4-2 1-0 4-1 2-0 1-1</t>
-  </si>
-  <si>
-    <t>Zaglebie,3-0 3-1 2-0 4-0 1-3 0-1 2-1 0-2 0-1 4-2 1-1 0-0 2-1</t>
-  </si>
-  <si>
-    <t>Cracovia,0 -1 -2 -3 1 1 0 0 2 0 2 0 -1 -1,(-2)</t>
-  </si>
-  <si>
-    <t>Gornik Z.,-2 -2 1 2 -1 0 1 -2 2 -1 0 0 -1,(-3)</t>
-  </si>
-  <si>
-    <t>Jagiellonia,0 3 1 -2 -1 0 0 -3 1 1 0 -3 0 0,(-3)</t>
-  </si>
-  <si>
-    <t>Lech Poznan,0 2 2 2 2 0 0 5 -1 4 1 3 0 0,(20)</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk,0 1 0 3 -2 0 0 1 4 2 2 0 2 1,(14)</t>
-  </si>
-  <si>
-    <t>Leczna,0 -2 -4 0 -2 -2 1 -2 -4 -3 0 -2 0 0,(-20)</t>
-  </si>
-  <si>
-    <t>Legia,1 -2 2 -1 -1 2 -1 -2 -1 -3 -2 -2,(-10)</t>
-  </si>
-  <si>
-    <t>Piast Gliwice,-1 2 -1 1 0 1 -1 -1 -2 1 0 3 0 -1,(1)</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin,2 0 1 -2 3 0 0 0 1 3 -1 3 2 0,(12)</t>
-  </si>
-  <si>
-    <t>Radomiak Radom,0 2 -1 1 0 0 0 -1 0 0 0 2 1 1,(5)</t>
-  </si>
-  <si>
-    <t>Rakow,1 -3 1 0 0 3 1 0 3 1 1 0 0,(8)</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw,0 1 0 0 0 2 1 0 2 -4 -1 5 -1 0,(5)</t>
-  </si>
-  <si>
-    <t>Stal Mielec,0 -2 -1 1 -3 2 0 -3 1 0 2 0 0 2,(-1)</t>
-  </si>
-  <si>
-    <t>Termalica B-B.,0 0 -1 -2 -1 0 -1 2 0 -2 -1 1 0,(-5)</t>
-  </si>
-  <si>
-    <t>Warta Poznan,0 0 4 -2 -1 0 0 -1 -2 -3 -2 0 -2 1,(-8)</t>
-  </si>
-  <si>
-    <t>Wisla,3 0 -1 -1 2 1 0 -5 -1 -1 1 -5 -2 1,(-8)</t>
-  </si>
-  <si>
-    <t>Wisla Plock,-1 -1 1 -1 4 0 -1 3 -2 -2 1 -3 2 0,(0)</t>
-  </si>
-  <si>
-    <t>Zaglebie,-3 2 2 -4 -2 1 1 2 -1 -2 0 0 -1,(-5)</t>
-  </si>
-  <si>
-    <t>Cracovia,Leczna(18) Slask Wroclaw(6) Lech Poznan(1) Lechia Gdansk(2) Jagiellonia(8) Termalica B-B.(15) Gornik Z.(14) Pogon Szczecin(3) Piast Gliwice(9) Stal Mielec(7) Warta Poznan(16) Zaglebie(13) Radomiak Radom(5) Wisla(11)</t>
-  </si>
-  <si>
-    <t>Gornik Z.,Pogon Szczecin(3) Lech Poznan(1) Stal Mielec(7) Jagiellonia(8) Piast Gliwice(9) Cracovia(10) Warta Poznan(16) Termalica B-B.(15) Wisla Plock(12) Wisla(11) Lechia Gdansk(2) Zaglebie(13) Radomiak Radom(5)</t>
-  </si>
-  <si>
-    <t>Jagiellonia,Lechia Gdansk(2) Rakow(4) Termalica B-B.(15) Gornik Z.(14) Cracovia(10) Warta Poznan(16) Stal Mielec(7) Wisla Plock(12) Lech Poznan(1) Zaglebie(13) Radomiak Radom(5) Pogon Szczecin(3) Piast Gliwice(9) Slask Wroclaw(6)</t>
-  </si>
-  <si>
-    <t>Lech Poznan,Radomiak Radom(5) Gornik Z.(14) Cracovia(10) Termalica B-B.(15) Lechia Gdansk(2) Pogon Szczecin(3) Rakow(4) Wisla(11) Jagiellonia(8) Slask Wroclaw(6) Legia(17) Wisla Plock(12) Stal Mielec(7) Leczna(18)</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk,Jagiellonia(8) Wisla Plock(12) Slask Wroclaw(6) Cracovia(10) Lech Poznan(1) Radomiak Radom(5) Wisla(11) Piast Gliwice(9) Leczna(18) Legia(17) Termalica B-B.(15) Gornik Z.(14) Warta Poznan(16) Zaglebie(13)</t>
-  </si>
-  <si>
-    <t>Leczna,Cracovia(10) Zaglebie(13) Warta Poznan(16) Slask Wroclaw(6) Wisla(11) Stal Mielec(7) Wisla Plock(12) Legia(17) Lechia Gdansk(2) Pogon Szczecin(3) Piast Gliwice(9) Radomiak Radom(5) Rakow(4) Lech Poznan(1)</t>
-  </si>
-  <si>
-    <t>Legia,Wisla Plock(12) Radomiak Radom(5) Warta Poznan(16) Wisla(11) Slask Wroclaw(6) Leczna(18) Rakow(4) Lechia Gdansk(2) Lech Poznan(1) Piast Gliwice(9) Pogon Szczecin(3) Stal Mielec(7)</t>
-  </si>
-  <si>
-    <t>Piast Gliwice,Rakow(4) Stal Mielec(7) Pogon Szczecin(3) Wisla Plock(12) Slask Wroclaw(6) Gornik Z.(14) Zaglebie(13) Lechia Gdansk(2) Cracovia(10) Wisla(11) Leczna(18) Legia(17) Jagiellonia(8) Warta Poznan(16)</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin,Gornik Z.(14) Warta Poznan(16) Piast Gliwice(9) Zaglebie(13) Stal Mielec(7) Lech Poznan(1) Radomiak Radom(5) Cracovia(10) Wisla(11) Leczna(18) Wisla Plock(12) Jagiellonia(8) Legia(17) Rakow(4)</t>
-  </si>
-  <si>
-    <t>Radomiak Radom,Lech Poznan(1) Legia(17) Wisla Plock(12) Warta Poznan(16) Lechia Gdansk(2) Pogon Szczecin(3) Slask Wroclaw(6) Stal Mielec(7) Rakow(4) Termalica B-B.(15) Jagiellonia(8) Leczna(18) Cracovia(10) Gornik Z.(14)</t>
-  </si>
-  <si>
-    <t>Rakow,Piast Gliwice(9) Jagiellonia(8) Wisla(11) Wisla Plock(12) Lech Poznan(1) Stal Mielec(7) Legia(17) Radomiak Radom(5) Warta Poznan(16) Slask Wroclaw(6) Termalica B-B.(15) Leczna(18) Pogon Szczecin(3)</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw,Warta Poznan(16) Cracovia(10) Lechia Gdansk(2) Leczna(18) Piast Gliwice(9) Zaglebie(13) Legia(17) Radomiak Radom(5) Wisla Plock(12) Lech Poznan(1) Rakow(4) Wisla(11) Termalica B-B.(15) Jagiellonia(8)</t>
-  </si>
-  <si>
-    <t>Stal Mielec,Termalica B-B.(15) Piast Gliwice(9) Gornik Z.(14) Wisla(11) Pogon Szczecin(3) Leczna(18) Jagiellonia(8) Rakow(4) Radomiak Radom(5) Cracovia(10) Zaglebie(13) Warta Poznan(16) Lech Poznan(1) Legia(17)</t>
-  </si>
-  <si>
-    <t>Termalica B-B.,Stal Mielec(7) Wisla(11) Jagiellonia(8) Lech Poznan(1) Cracovia(10) Warta Poznan(16) Zaglebie(13) Gornik Z.(14) Radomiak Radom(5) Lechia Gdansk(2) Rakow(4) Slask Wroclaw(6) Wisla Plock(12)</t>
-  </si>
-  <si>
-    <t>Warta Poznan,Slask Wroclaw(6) Pogon Szczecin(3) Leczna(18) Legia(17) Radomiak Radom(5) Jagiellonia(8) Termalica B-B.(15) Gornik Z.(14) Zaglebie(13) Rakow(4) Cracovia(10) Stal Mielec(7) Lechia Gdansk(2) Piast Gliwice(9)</t>
-  </si>
-  <si>
-    <t>Wisla,Zaglebie(13) Termalica B-B.(15) Rakow(4) Stal Mielec(7) Leczna(18) Legia(17) Lechia Gdansk(2) Lech Poznan(1) Pogon Szczecin(3) Piast Gliwice(9) Gornik Z.(14) Slask Wroclaw(6) Wisla Plock(12) Cracovia(10)</t>
-  </si>
-  <si>
-    <t>Wisla Plock,Legia(17) Lechia Gdansk(2) Radomiak Radom(5) Piast Gliwice(9) Zaglebie(13) Rakow(4) Leczna(18) Jagiellonia(8) Slask Wroclaw(6) Gornik Z.(14) Pogon Szczecin(3) Lech Poznan(1) Wisla(11) Termalica B-B.(15)</t>
-  </si>
-  <si>
-    <t>Zaglebie,Wisla(11) Leczna(18) Pogon Szczecin(3) Wisla Plock(12) Slask Wroclaw(6) Piast Gliwice(9) Termalica B-B.(15) Warta Poznan(16) Jagiellonia(8) Stal Mielec(7) Cracovia(10) Gornik Z.(14) Lechia Gdansk(2)</t>
+    <t>Cracovia,W D W D L L</t>
+  </si>
+  <si>
+    <t>Gornik Z.,L W L D D L</t>
+  </si>
+  <si>
+    <t>Jagiellonia,W W D L D D</t>
+  </si>
+  <si>
+    <t>Lech Poznan,L W W W D D</t>
+  </si>
+  <si>
+    <t>Lechia Gdansk,W W W D W W</t>
+  </si>
+  <si>
+    <t>Leczna,L L D L D D</t>
+  </si>
+  <si>
+    <t>Legia,L L L L L L</t>
+  </si>
+  <si>
+    <t>Piast Gliwice,L W D W D L</t>
+  </si>
+  <si>
+    <t>Pogon Szczecin,W W L W W D</t>
+  </si>
+  <si>
+    <t>Radomiak Radom,D D D W W W</t>
+  </si>
+  <si>
+    <t>Rakow,D W W W D D</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw,W L L W L D</t>
+  </si>
+  <si>
+    <t>Stal Mielec,W D W D D W</t>
+  </si>
+  <si>
+    <t>Termalica B-B.,W D L L W D</t>
+  </si>
+  <si>
+    <t>Warta Poznan,L L L D L W</t>
+  </si>
+  <si>
+    <t>Wisla,L L W L L W</t>
+  </si>
+  <si>
+    <t>Wisla Plock,L L W L W D</t>
+  </si>
+  <si>
+    <t>Zaglebie,W L L D D L</t>
+  </si>
+  <si>
+    <t>Cracovia,4 3 2 1 1 0,(11)</t>
+  </si>
+  <si>
+    <t>Gornik Z.,1 4 0 1 0 0,(6)</t>
+  </si>
+  <si>
+    <t>Jagiellonia,1 1 1 1 3 2,(9)</t>
+  </si>
+  <si>
+    <t>Lech Poznan,0 4 1 4 0 1,(10)</t>
+  </si>
+  <si>
+    <t>Lechia Gdansk,4 3 2 1 2 2,(14)</t>
+  </si>
+  <si>
+    <t>Leczna,0 1 1 1 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Legia,2 1 0 1 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Piast Gliwice,2 1 1 4 3 0,(11)</t>
+  </si>
+  <si>
+    <t>Pogon Szczecin,1 4 0 4 2 0,(11)</t>
+  </si>
+  <si>
+    <t>Radomiak Radom,2 1 1 3 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Rakow,2 3 2 3 0 0,(10)</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw,3 0 1 5 3 2,(14)</t>
+  </si>
+  <si>
+    <t>Stal Mielec,1 3 4 0 0 3,(11)</t>
+  </si>
+  <si>
+    <t>Termalica B-B.,3 1 0 2 4 1,(11)</t>
+  </si>
+  <si>
+    <t>Warta Poznan,0 0 0 0 0 1,(1)</t>
+  </si>
+  <si>
+    <t>Wisla,0 0 1 0 0 1,(2)</t>
+  </si>
+  <si>
+    <t>Wisla Plock,1 2 1 1 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Zaglebie,2 0 2 1 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Cracovia,2 3 0 1 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Gornik Z.,3 2 1 1 0 1,(8)</t>
+  </si>
+  <si>
+    <t>Jagiellonia,0 0 1 4 3 2,(10)</t>
+  </si>
+  <si>
+    <t>Lech Poznan,1 0 0 1 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Lechia Gdansk,0 1 0 1 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Leczna,4 4 1 3 0 1,(13)</t>
+  </si>
+  <si>
+    <t>Legia,3 3 1 4 2 3,(16)</t>
+  </si>
+  <si>
+    <t>Piast Gliwice,4 0 1 1 3 1,(10)</t>
+  </si>
+  <si>
+    <t>Pogon Szczecin,0 1 1 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Radomiak Radom,2 1 1 1 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Rakow,2 0 1 2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw,1 4 2 0 4 2,(13)</t>
+  </si>
+  <si>
+    <t>Stal Mielec,0 3 2 0 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Termalica B-B.,1 1 2 3 3 1,(11)</t>
+  </si>
+  <si>
+    <t>Warta Poznan,2 3 2 0 2 0,(9)</t>
+  </si>
+  <si>
+    <t>Wisla,1 1 0 5 2 0,(9)</t>
+  </si>
+  <si>
+    <t>Wisla Plock,3 4 0 4 0 1,(12)</t>
+  </si>
+  <si>
+    <t>Zaglebie,0 1 4 1 0 2,(8)</t>
+  </si>
+  <si>
+    <t>Cracovia,6 6 2 2 3 1,(20)</t>
+  </si>
+  <si>
+    <t>Gornik Z.,4 6 1 2 0 1,(14)</t>
+  </si>
+  <si>
+    <t>Jagiellonia,1 1 2 5 6 4,(19)</t>
+  </si>
+  <si>
+    <t>Lech Poznan,1 4 1 5 0 2,(13)</t>
+  </si>
+  <si>
+    <t>Lechia Gdansk,4 4 2 2 2 3,(17)</t>
+  </si>
+  <si>
+    <t>Leczna,4 5 2 4 0 2,(17)</t>
+  </si>
+  <si>
+    <t>Legia,5 4 1 5 2 4,(21)</t>
+  </si>
+  <si>
+    <t>Piast Gliwice,6 1 2 5 6 1,(21)</t>
+  </si>
+  <si>
+    <t>Pogon Szczecin,1 5 1 5 2 0,(14)</t>
+  </si>
+  <si>
+    <t>Radomiak Radom,4 2 2 4 3 1,(16)</t>
+  </si>
+  <si>
+    <t>Rakow,4 3 3 5 0 0,(15)</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw,4 4 3 5 7 4,(27)</t>
+  </si>
+  <si>
+    <t>Stal Mielec,1 6 6 0 0 4,(17)</t>
+  </si>
+  <si>
+    <t>Termalica B-B.,4 2 2 5 7 2,(22)</t>
+  </si>
+  <si>
+    <t>Warta Poznan,2 3 2 0 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Wisla,1 1 1 5 2 1,(11)</t>
+  </si>
+  <si>
+    <t>Wisla Plock,4 6 1 5 2 2,(20)</t>
+  </si>
+  <si>
+    <t>Zaglebie,2 1 6 2 0 3,(14)</t>
+  </si>
+  <si>
+    <t>Cracovia,2-4 3-3 2-0 1-1 1-2 1-0</t>
+  </si>
+  <si>
+    <t>Gornik Z.,3-1 4-2 0-1 1-1 0-0 1-0</t>
+  </si>
+  <si>
+    <t>Jagiellonia,1-0 0-1 1-1 4-1 3-3 2-2</t>
+  </si>
+  <si>
+    <t>Lech Poznan,1-0 4-0 0-1 4-1 0-0 1-1</t>
+  </si>
+  <si>
+    <t>Lechia Gdansk,0-4 3-1 0-2 1-1 0-2 2-1</t>
+  </si>
+  <si>
+    <t>Leczna,0-4 4-1 1-1 3-1 0-0 1-1</t>
+  </si>
+  <si>
+    <t>Legia,2-3 3-1 0-1 4-1 0-2 1-3</t>
+  </si>
+  <si>
+    <t>Piast Gliwice,2-4 1-0 1-1 4-1 3-3 0-1</t>
+  </si>
+  <si>
+    <t>Pogon Szczecin,0-1 4-1 1-0 4-1 0-2 0-0</t>
+  </si>
+  <si>
+    <t>Radomiak Radom,2-2 1-1 1-1 3-1 1-2 1-0</t>
+  </si>
+  <si>
+    <t>Rakow,2-2 3-0 1-2 3-2 0-0 0-0</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw,3-1 4-0 1-2 0-5 4-3 2-2</t>
+  </si>
+  <si>
+    <t>Stal Mielec,1-0 3-3 4-2 0-0 0-0 1-3</t>
+  </si>
+  <si>
+    <t>Termalica B-B.,3-1 1-1 0-2 3-2 4-3 1-1</t>
+  </si>
+  <si>
+    <t>Warta Poznan,0-2 3-0 2-0 0-0 0-2 0-1</t>
+  </si>
+  <si>
+    <t>Wisla,0-1 1-0 0-1 0-5 2-0 1-0</t>
+  </si>
+  <si>
+    <t>Wisla Plock,3-1 4-2 1-0 4-1 2-0 1-1</t>
+  </si>
+  <si>
+    <t>Zaglebie,0-2 0-1 4-2 1-1 0-0 2-1</t>
+  </si>
+  <si>
+    <t>Cracovia,2 0 2 0 -1 -1,(2)</t>
+  </si>
+  <si>
+    <t>Gornik Z.,-2 2 -1 0 0 -1,(-2)</t>
+  </si>
+  <si>
+    <t>Jagiellonia,1 1 0 -3 0 0,(-1)</t>
+  </si>
+  <si>
+    <t>Lech Poznan,-1 4 1 3 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Lechia Gdansk,4 2 2 0 2 1,(11)</t>
+  </si>
+  <si>
+    <t>Leczna,-4 -3 0 -2 0 0,(-9)</t>
+  </si>
+  <si>
+    <t>Legia,-1 -2 -1 -3 -2 -2,(-11)</t>
+  </si>
+  <si>
+    <t>Piast Gliwice,-2 1 0 3 0 -1,(1)</t>
+  </si>
+  <si>
+    <t>Pogon Szczecin,1 3 -1 3 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Radomiak Radom,0 0 0 2 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Rakow,0 3 1 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw,2 -4 -1 5 -1 0,(1)</t>
+  </si>
+  <si>
+    <t>Stal Mielec,1 0 2 0 0 2,(5)</t>
+  </si>
+  <si>
+    <t>Termalica B-B.,2 0 -2 -1 1 0,(0)</t>
+  </si>
+  <si>
+    <t>Warta Poznan,-2 -3 -2 0 -2 1,(-8)</t>
+  </si>
+  <si>
+    <t>Wisla,-1 -1 1 -5 -2 1,(-7)</t>
+  </si>
+  <si>
+    <t>Wisla Plock,-2 -2 1 -3 2 0,(-4)</t>
+  </si>
+  <si>
+    <t>Zaglebie,2 -1 -2 0 0 -1,(-2)</t>
+  </si>
+  <si>
+    <t>Cracovia,Piast Gliwice(9) Stal Mielec(7) Warta Poznan(16) Zaglebie(13) Radomiak Radom(5) Wisla(11)</t>
+  </si>
+  <si>
+    <t>Gornik Z.,Termalica B-B.(15) Wisla Plock(12) Wisla(11) Lechia Gdansk(2) Zaglebie(13) Radomiak Radom(5)</t>
+  </si>
+  <si>
+    <t>Jagiellonia,Lech Poznan(1) Zaglebie(13) Radomiak Radom(5) Pogon Szczecin(3) Piast Gliwice(9) Slask Wroclaw(6)</t>
+  </si>
+  <si>
+    <t>Lech Poznan,Jagiellonia(8) Slask Wroclaw(6) Legia(17) Wisla Plock(12) Stal Mielec(7) Leczna(18)</t>
+  </si>
+  <si>
+    <t>Lechia Gdansk,Leczna(18) Legia(17) Termalica B-B.(15) Gornik Z.(14) Warta Poznan(16) Zaglebie(13)</t>
+  </si>
+  <si>
+    <t>Leczna,Lechia Gdansk(2) Pogon Szczecin(3) Piast Gliwice(9) Radomiak Radom(5) Rakow(4) Lech Poznan(1)</t>
+  </si>
+  <si>
+    <t>Legia,Rakow(4) Lechia Gdansk(2) Lech Poznan(1) Piast Gliwice(9) Pogon Szczecin(3) Stal Mielec(7)</t>
+  </si>
+  <si>
+    <t>Piast Gliwice,Cracovia(10) Wisla(11) Leczna(18) Legia(17) Jagiellonia(8) Warta Poznan(16)</t>
+  </si>
+  <si>
+    <t>Pogon Szczecin,Wisla(11) Leczna(18) Wisla Plock(12) Jagiellonia(8) Legia(17) Rakow(4)</t>
+  </si>
+  <si>
+    <t>Radomiak Radom,Rakow(4) Termalica B-B.(15) Jagiellonia(8) Leczna(18) Cracovia(10) Gornik Z.(14)</t>
+  </si>
+  <si>
+    <t>Rakow,Radomiak Radom(5) Warta Poznan(16) Slask Wroclaw(6) Termalica B-B.(15) Leczna(18) Pogon Szczecin(3)</t>
+  </si>
+  <si>
+    <t>Slask Wroclaw,Wisla Plock(12) Lech Poznan(1) Rakow(4) Wisla(11) Termalica B-B.(15) Jagiellonia(8)</t>
+  </si>
+  <si>
+    <t>Stal Mielec,Radomiak Radom(5) Cracovia(10) Zaglebie(13) Warta Poznan(16) Lech Poznan(1) Legia(17)</t>
+  </si>
+  <si>
+    <t>Termalica B-B.,Gornik Z.(14) Radomiak Radom(5) Lechia Gdansk(2) Rakow(4) Slask Wroclaw(6) Wisla Plock(12)</t>
+  </si>
+  <si>
+    <t>Warta Poznan,Zaglebie(13) Rakow(4) Cracovia(10) Stal Mielec(7) Lechia Gdansk(2) Piast Gliwice(9)</t>
+  </si>
+  <si>
+    <t>Wisla,Pogon Szczecin(3) Piast Gliwice(9) Gornik Z.(14) Slask Wroclaw(6) Wisla Plock(12) Cracovia(10)</t>
+  </si>
+  <si>
+    <t>Wisla Plock,Slask Wroclaw(6) Gornik Z.(14) Pogon Szczecin(3) Lech Poznan(1) Wisla(11) Termalica B-B.(15)</t>
+  </si>
+  <si>
+    <t>Zaglebie,Warta Poznan(16) Jagiellonia(8) Stal Mielec(7) Cracovia(10) Gornik Z.(14) Lechia Gdansk(2)</t>
   </si>
   <si>
     <t>pol_division</t>
